--- a/grupos/4ALCM - Estadisticos 20242.xlsx
+++ b/grupos/4ALCM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Materia</t>
   </si>
@@ -242,7 +242,7 @@
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>MARIN</t>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>RIVERA</t>
@@ -254,9 +254,6 @@
     <t>BAEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>OLMOS</t>
   </si>
   <si>
@@ -266,7 +263,7 @@
     <t>YAMILETH</t>
   </si>
   <si>
-    <t>ABRIL</t>
+    <t>ARELI DANAE</t>
   </si>
   <si>
     <t>MELANY</t>
@@ -821,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -922,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1023,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1071,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="AA6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB6">
         <v>9</v>
@@ -1124,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1225,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1326,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1374,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -1427,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1475,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="AA10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB10">
         <v>10</v>
@@ -1528,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1576,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -1629,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -1677,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>8</v>
@@ -1730,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1778,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>8</v>
@@ -1831,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1932,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1980,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB15">
         <v>10</v>
@@ -2033,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -2081,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16">
         <v>9</v>
@@ -2134,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -2182,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB17">
         <v>9</v>
@@ -2235,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2283,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB18">
         <v>9</v>
@@ -2336,7 +2333,7 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2437,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -2485,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AA20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB20">
         <v>9</v>
@@ -2538,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -2639,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -2687,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="AA22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB22">
         <v>10</v>
@@ -2740,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -2788,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="AA23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB23">
         <v>9</v>
@@ -2841,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2889,7 +2886,7 @@
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>9</v>
@@ -2942,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -2990,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -3043,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -3091,7 +3088,7 @@
         <v>8</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB26">
         <v>6</v>
@@ -3144,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -3245,7 +3242,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -3293,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB28">
         <v>10</v>
@@ -3346,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -3447,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -3495,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="AA30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB30">
         <v>8</v>
@@ -3548,7 +3545,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -3649,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -3697,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="AA32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB32">
         <v>8</v>
@@ -3750,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -3851,7 +3848,7 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -3952,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -4053,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -4101,7 +4098,7 @@
         <v>9</v>
       </c>
       <c r="AA36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB36">
         <v>10</v>
@@ -4154,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -4202,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB37">
         <v>10</v>
@@ -7088,7 +7085,7 @@
         <v>5.9</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -7397,7 +7394,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -7420,7 +7417,7 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -7443,7 +7440,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -7466,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -7489,7 +7486,7 @@
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -7503,16 +7500,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920097</v>
+        <v>23330051920103</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -7532,10 +7529,10 @@
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
